--- a/Semester-Planner-101-2025-fall.xlsx
+++ b/Semester-Planner-101-2025-fall.xlsx
@@ -83,8 +83,8 @@
 - Types of Forces</t>
   </si>
   <si>
-    <t xml:space="preserve">** Labor Day ** - Monday
-Force Table for all other labs</t>
+    <t xml:space="preserve">** Labor Day **
+</t>
   </si>
   <si>
     <t xml:space="preserve">Chapter 3 - Newton's 2nd
@@ -92,7 +92,7 @@
 - more problems</t>
   </si>
   <si>
-    <t xml:space="preserve">Force Table for Monday ONLY</t>
+    <t xml:space="preserve">Force Tables</t>
   </si>
   <si>
     <t xml:space="preserve">Chapter 4 - Constant Acceleration
@@ -394,7 +394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,10 +497,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -795,13 +791,13 @@
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.42"/>
@@ -1142,7 +1138,7 @@
       <c r="J20" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1156,7 +1152,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="26"/>
+      <c r="K21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="14"/>
@@ -1173,7 +1169,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
-      <c r="K22" s="26"/>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="14"/>
@@ -1190,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="J23" s="14"/>
-      <c r="K23" s="26"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="14"/>
@@ -1210,7 +1206,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="20"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="26"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="14"/>
@@ -1222,10 +1218,10 @@
       <c r="H25" s="21"/>
       <c r="I25" s="20"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="26"/>
+      <c r="K25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="27" t="n">
+      <c r="B26" s="26" t="n">
         <v>4</v>
       </c>
       <c r="C26" s="14" t="n">
@@ -1248,15 +1244,15 @@
       <c r="I26" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="J26" s="27" t="n">
+      <c r="J26" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="27"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="14"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
@@ -1265,10 +1261,10 @@
       <c r="H27" s="15"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="28"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="27"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="20" t="n">
         <f aca="false">C26+1</f>
         <v>10</v>
@@ -1283,59 +1279,59 @@
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="28"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="27"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30" t="n">
+      <c r="G29" s="28"/>
+      <c r="H29" s="29" t="n">
         <f aca="false">H26+IF(WEEKDAY(H26)=3,2,5)</f>
         <v>45918</v>
       </c>
-      <c r="I29" s="31" t="n">
+      <c r="I29" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="27"/>
-      <c r="C30" s="32" t="n">
+      <c r="B30" s="26"/>
+      <c r="C30" s="31" t="n">
         <f aca="false">C28+1</f>
         <v>11</v>
       </c>
-      <c r="D30" s="30" t="n">
+      <c r="D30" s="29" t="n">
         <f aca="false">IF(D29="",D28+IF(OR(WEEKDAY(D28)=2,WEEKDAY(D28)=4),2,3),"")</f>
         <v>45919</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="27"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="27" t="n">
+      <c r="B32" s="26" t="n">
         <v>5</v>
       </c>
       <c r="C32" s="14" t="n">
@@ -1347,7 +1343,7 @@
         <v>45922</v>
       </c>
       <c r="E32" s="16"/>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="16"/>
@@ -1358,15 +1354,15 @@
       <c r="I32" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="J32" s="27" t="n">
+      <c r="J32" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="27"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
       <c r="E33" s="16"/>
@@ -1375,10 +1371,10 @@
       <c r="H33" s="15"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="28"/>
+      <c r="K33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="27"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="20" t="n">
         <f aca="false">C32+1</f>
         <v>13</v>
@@ -1388,64 +1384,64 @@
         <v>45924</v>
       </c>
       <c r="E34" s="22"/>
-      <c r="F34" s="28"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="16"/>
       <c r="H34" s="15"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
-      <c r="K34" s="28"/>
+      <c r="K34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="27"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30" t="n">
+      <c r="G35" s="28"/>
+      <c r="H35" s="29" t="n">
         <f aca="false">H32+IF(WEEKDAY(H32)=3,2,5)</f>
         <v>45925</v>
       </c>
-      <c r="I35" s="31" t="n">
+      <c r="I35" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="27"/>
-      <c r="C36" s="32" t="n">
+      <c r="B36" s="26"/>
+      <c r="C36" s="31" t="n">
         <f aca="false">C34+1</f>
         <v>14</v>
       </c>
-      <c r="D36" s="30" t="n">
+      <c r="D36" s="29" t="n">
         <f aca="false">IF(D35="",D34+IF(OR(WEEKDAY(D34)=2,WEEKDAY(D34)=4),2,3),"")</f>
         <v>45926</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="27"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="28"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="27" t="n">
+      <c r="B38" s="26" t="n">
         <v>6</v>
       </c>
       <c r="C38" s="14" t="n">
@@ -1457,7 +1453,7 @@
         <v>45929</v>
       </c>
       <c r="E38" s="16"/>
-      <c r="F38" s="28" t="s">
+      <c r="F38" s="27" t="s">
         <v>25</v>
       </c>
       <c r="G38" s="16"/>
@@ -1468,10 +1464,10 @@
       <c r="I38" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="J38" s="27" t="n">
+      <c r="J38" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1480,19 +1476,19 @@
         <f aca="false">DATE(D3,D4+2,1)</f>
         <v>45931</v>
       </c>
-      <c r="B39" s="27"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
-      <c r="F39" s="28"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="16"/>
       <c r="H39" s="15"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="28"/>
+      <c r="K39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="27"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="20" t="n">
         <f aca="false">C38+1</f>
         <v>16</v>
@@ -1502,66 +1498,66 @@
         <v>45931</v>
       </c>
       <c r="E40" s="22"/>
-      <c r="F40" s="28"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="16"/>
       <c r="H40" s="15"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
-      <c r="K40" s="28"/>
+      <c r="K40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="27"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="22"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29" t="s">
+      <c r="F41" s="27"/>
+      <c r="G41" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="30" t="n">
+      <c r="H41" s="29" t="n">
         <f aca="false">H38+IF(WEEKDAY(H38)=3,2,5)</f>
         <v>45932</v>
       </c>
-      <c r="I41" s="31" t="n">
+      <c r="I41" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="J41" s="27"/>
-      <c r="K41" s="28"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="27"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="27"/>
-      <c r="C42" s="32" t="n">
+      <c r="B42" s="26"/>
+      <c r="C42" s="31" t="n">
         <f aca="false">C40+1</f>
         <v>17</v>
       </c>
-      <c r="D42" s="30" t="n">
+      <c r="D42" s="29" t="n">
         <f aca="false">IF(D41="",D40+IF(OR(WEEKDAY(D40)=2,WEEKDAY(D40)=4),2,3),"")</f>
         <v>45933</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="27"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="28"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="27" t="n">
+      <c r="B44" s="26" t="n">
         <v>7</v>
       </c>
       <c r="C44" s="14" t="n">
@@ -1584,15 +1580,15 @@
       <c r="I44" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="J44" s="27" t="n">
+      <c r="J44" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="27"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="14"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
@@ -1601,10 +1597,10 @@
       <c r="H45" s="15"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
-      <c r="K45" s="28"/>
+      <c r="K45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="27"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="20" t="n">
         <f aca="false">C44+1</f>
         <v>19</v>
@@ -1619,56 +1615,56 @@
       <c r="H46" s="15"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
-      <c r="K46" s="28"/>
+      <c r="K46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="27"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30" t="n">
+      <c r="G47" s="28"/>
+      <c r="H47" s="29" t="n">
         <f aca="false">H44+IF(WEEKDAY(H44)=3,2,5)</f>
         <v>45939</v>
       </c>
-      <c r="I47" s="31" t="n">
+      <c r="I47" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="28"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="27"/>
-      <c r="C48" s="32" t="n">
+      <c r="B48" s="26"/>
+      <c r="C48" s="31" t="n">
         <f aca="false">C46+1</f>
         <v>20</v>
       </c>
-      <c r="D48" s="30" t="n">
+      <c r="D48" s="29" t="n">
         <f aca="false">IF(D47="",D46+IF(OR(WEEKDAY(D46)=2,WEEKDAY(D46)=4),2,3),"")</f>
         <v>45940</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F48" s="17"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="27"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="29"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="14" t="n">
@@ -1740,7 +1736,7 @@
         <f aca="false">H50+IF(WEEKDAY(H50)=3,2,5)</f>
         <v>45946</v>
       </c>
-      <c r="I53" s="31" t="n">
+      <c r="I53" s="30" t="n">
         <f aca="false">I47+1</f>
         <v>15</v>
       </c>
@@ -1763,7 +1759,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="22"/>
       <c r="H54" s="21"/>
-      <c r="I54" s="31"/>
+      <c r="I54" s="30"/>
       <c r="J54" s="14"/>
       <c r="K54" s="25"/>
     </row>
@@ -1775,12 +1771,12 @@
       <c r="F55" s="16"/>
       <c r="G55" s="22"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="31"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="14"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="27" t="n">
+      <c r="B56" s="26" t="n">
         <v>9</v>
       </c>
       <c r="C56" s="14" t="n">
@@ -1804,15 +1800,15 @@
         <f aca="false">I53+1</f>
         <v>16</v>
       </c>
-      <c r="J56" s="27" t="n">
+      <c r="J56" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="K56" s="28" t="s">
+      <c r="K56" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="27"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
       <c r="E57" s="16"/>
@@ -1821,10 +1817,10 @@
       <c r="H57" s="15"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="28"/>
+      <c r="K57" s="27"/>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="27"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="20" t="n">
         <f aca="false">C56+1</f>
         <v>24</v>
@@ -1839,60 +1835,60 @@
       <c r="H58" s="15"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
-      <c r="K58" s="28"/>
+      <c r="K58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="27"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="30" t="n">
+      <c r="G59" s="28"/>
+      <c r="H59" s="29" t="n">
         <f aca="false">H56+IF(WEEKDAY(H56)=3,2,5)</f>
         <v>45953</v>
       </c>
-      <c r="I59" s="31" t="n">
+      <c r="I59" s="30" t="n">
         <f aca="false">I56+1</f>
         <v>17</v>
       </c>
-      <c r="J59" s="27"/>
-      <c r="K59" s="28"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="27"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="27"/>
-      <c r="C60" s="32" t="n">
+      <c r="B60" s="26"/>
+      <c r="C60" s="31" t="n">
         <f aca="false">C58+1</f>
         <v>25</v>
       </c>
-      <c r="D60" s="30" t="n">
+      <c r="D60" s="29" t="n">
         <f aca="false">IF(D59="",D58+IF(OR(WEEKDAY(D58)=2,WEEKDAY(D58)=4),2,3),"")</f>
         <v>45954</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="17"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="27"/>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="27"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="29"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="28"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="27"/>
     </row>
     <row r="62" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="27" t="n">
+      <c r="B62" s="26" t="n">
         <v>10</v>
       </c>
       <c r="C62" s="14" t="n">
@@ -1916,15 +1912,15 @@
         <f aca="false">I59+1</f>
         <v>18</v>
       </c>
-      <c r="J62" s="27" t="n">
+      <c r="J62" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="K62" s="28" t="s">
+      <c r="K62" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="27"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15"/>
       <c r="E63" s="16"/>
@@ -1933,10 +1929,10 @@
       <c r="H63" s="15"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
-      <c r="K63" s="28"/>
+      <c r="K63" s="27"/>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="27"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="20" t="n">
         <f aca="false">C62+1</f>
         <v>27</v>
@@ -1951,64 +1947,64 @@
       <c r="H64" s="15"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="28"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="27"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="30" t="n">
+      <c r="G65" s="28"/>
+      <c r="H65" s="29" t="n">
         <f aca="false">H62+IF(WEEKDAY(H62)=3,2,5)</f>
         <v>45960</v>
       </c>
-      <c r="I65" s="31" t="n">
+      <c r="I65" s="30" t="n">
         <f aca="false">I62+1</f>
         <v>19</v>
       </c>
-      <c r="J65" s="27"/>
-      <c r="K65" s="28"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="27"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="n">
         <f aca="false">DATE(D3,D4+3,1)</f>
         <v>45962</v>
       </c>
-      <c r="B66" s="27"/>
-      <c r="C66" s="32" t="n">
+      <c r="B66" s="26"/>
+      <c r="C66" s="31" t="n">
         <f aca="false">C64+1</f>
         <v>28</v>
       </c>
-      <c r="D66" s="30" t="n">
+      <c r="D66" s="29" t="n">
         <f aca="false">IF(D65="",D64+IF(OR(WEEKDAY(D64)=2,WEEKDAY(D64)=4),2,3),"")</f>
         <v>45961</v>
       </c>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F66" s="17"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="27"/>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="27"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="29"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="27"/>
     </row>
     <row r="68" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="27" t="n">
+      <c r="B68" s="26" t="n">
         <v>11</v>
       </c>
       <c r="C68" s="14" t="n">
@@ -2032,15 +2028,15 @@
         <f aca="false">I65+1</f>
         <v>20</v>
       </c>
-      <c r="J68" s="27" t="n">
+      <c r="J68" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="K68" s="28" t="s">
+      <c r="K68" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="27"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="14"/>
       <c r="D69" s="15"/>
       <c r="E69" s="16"/>
@@ -2049,10 +2045,10 @@
       <c r="H69" s="15"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
-      <c r="K69" s="28"/>
+      <c r="K69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="27"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="20" t="n">
         <f aca="false">C68+1</f>
         <v>30</v>
@@ -2067,60 +2063,60 @@
       <c r="H70" s="15"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="28"/>
+      <c r="K70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="27"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="20"/>
       <c r="D71" s="21"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="30" t="n">
+      <c r="G71" s="28"/>
+      <c r="H71" s="29" t="n">
         <f aca="false">H68+IF(WEEKDAY(H68)=3,2,5)</f>
         <v>45967</v>
       </c>
-      <c r="I71" s="31" t="n">
+      <c r="I71" s="30" t="n">
         <f aca="false">I68+1</f>
         <v>21</v>
       </c>
-      <c r="J71" s="27"/>
-      <c r="K71" s="28"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="27"/>
-      <c r="C72" s="32" t="n">
+      <c r="B72" s="26"/>
+      <c r="C72" s="31" t="n">
         <f aca="false">C70+1</f>
         <v>31</v>
       </c>
-      <c r="D72" s="30" t="n">
+      <c r="D72" s="29" t="n">
         <f aca="false">IF(D71="",D70+IF(OR(WEEKDAY(D70)=2,WEEKDAY(D70)=4),2,3),"")</f>
         <v>45968</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F72" s="17"/>
-      <c r="G72" s="29"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="27"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="29"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="28"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="27" t="n">
+      <c r="B74" s="26" t="n">
         <v>12</v>
       </c>
       <c r="C74" s="14" t="n">
@@ -2144,15 +2140,15 @@
         <f aca="false">I71+1</f>
         <v>22</v>
       </c>
-      <c r="J74" s="27" t="n">
+      <c r="J74" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="K74" s="28" t="s">
+      <c r="K74" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="27"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
       <c r="E75" s="16"/>
@@ -2161,10 +2157,10 @@
       <c r="H75" s="15"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
-      <c r="K75" s="28"/>
+      <c r="K75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="27"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="20" t="n">
         <f aca="false">C74+1</f>
         <v>33</v>
@@ -2179,60 +2175,60 @@
       <c r="H76" s="15"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
-      <c r="K76" s="28"/>
+      <c r="K76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="27"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="22"/>
       <c r="F77" s="17"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="30" t="n">
+      <c r="G77" s="28"/>
+      <c r="H77" s="29" t="n">
         <f aca="false">H74+IF(WEEKDAY(H74)=3,2,5)</f>
         <v>45974</v>
       </c>
-      <c r="I77" s="31" t="n">
+      <c r="I77" s="30" t="n">
         <f aca="false">I74+1</f>
         <v>23</v>
       </c>
-      <c r="J77" s="27"/>
-      <c r="K77" s="28"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="27"/>
-      <c r="C78" s="32" t="n">
+      <c r="B78" s="26"/>
+      <c r="C78" s="31" t="n">
         <f aca="false">C76+1</f>
         <v>34</v>
       </c>
-      <c r="D78" s="30" t="n">
+      <c r="D78" s="29" t="n">
         <f aca="false">IF(D77="",D76+IF(OR(WEEKDAY(D76)=2,WEEKDAY(D76)=4),2,3),"")</f>
         <v>45975</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F78" s="17"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="27"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="29"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="28"/>
       <c r="F79" s="17"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="27" t="n">
+      <c r="B80" s="26" t="n">
         <v>13</v>
       </c>
       <c r="C80" s="14" t="n">
@@ -2256,15 +2252,15 @@
         <f aca="false">I77+1</f>
         <v>24</v>
       </c>
-      <c r="J80" s="27" t="n">
+      <c r="J80" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="K80" s="28" t="s">
+      <c r="K80" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="27"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15"/>
       <c r="E81" s="16"/>
@@ -2273,10 +2269,10 @@
       <c r="H81" s="15"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
-      <c r="K81" s="28"/>
+      <c r="K81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="27"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="20" t="n">
         <f aca="false">C80+1</f>
         <v>36</v>
@@ -2285,66 +2281,66 @@
         <f aca="false">IF(D81="",D80+IF(OR(WEEKDAY(D80)=2,WEEKDAY(D80)=4),2,3),"")</f>
         <v>45980</v>
       </c>
-      <c r="E82" s="33"/>
+      <c r="E82" s="32"/>
       <c r="F82" s="17"/>
       <c r="G82" s="16"/>
       <c r="H82" s="15"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
-      <c r="K82" s="28"/>
+      <c r="K82" s="27"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="27"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
-      <c r="E83" s="33"/>
+      <c r="E83" s="32"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="30" t="n">
+      <c r="G83" s="28"/>
+      <c r="H83" s="29" t="n">
         <f aca="false">H80+IF(WEEKDAY(H80)=3,2,5)</f>
         <v>45981</v>
       </c>
-      <c r="I83" s="31" t="n">
+      <c r="I83" s="30" t="n">
         <f aca="false">I80+1</f>
         <v>25</v>
       </c>
-      <c r="J83" s="27"/>
-      <c r="K83" s="28"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="27"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="27"/>
-      <c r="C84" s="32" t="n">
+      <c r="B84" s="26"/>
+      <c r="C84" s="31" t="n">
         <f aca="false">C82+1</f>
         <v>37</v>
       </c>
-      <c r="D84" s="30" t="n">
+      <c r="D84" s="29" t="n">
         <f aca="false">IF(D83="",D82+IF(OR(WEEKDAY(D82)=2,WEEKDAY(D82)=4),2,3),"")</f>
         <v>45982</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="33" t="s">
         <v>15</v>
       </c>
       <c r="F84" s="17"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="27"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="34"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="33"/>
       <c r="F85" s="17"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="27" t="n">
+      <c r="B86" s="26" t="n">
         <v>14</v>
       </c>
       <c r="C86" s="14" t="n">
@@ -2368,13 +2364,13 @@
         <f aca="false">I83+1</f>
         <v>26</v>
       </c>
-      <c r="J86" s="27" t="n">
+      <c r="J86" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="K86" s="28"/>
+      <c r="K86" s="27"/>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="27"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="14"/>
       <c r="D87" s="15"/>
       <c r="E87" s="16"/>
@@ -2383,16 +2379,16 @@
       <c r="H87" s="15"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="28"/>
+      <c r="K87" s="27"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="27"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="20"/>
       <c r="D88" s="21" t="n">
         <f aca="false">IF(D87="",D86+IF(OR(WEEKDAY(D86)=2,WEEKDAY(D86)=4),2,3),"")</f>
         <v>45987</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="34" t="s">
         <v>45</v>
       </c>
       <c r="F88" s="17"/>
@@ -2400,53 +2396,53 @@
       <c r="H88" s="15"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="28"/>
+      <c r="K88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="27"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
-      <c r="E89" s="35"/>
+      <c r="E89" s="34"/>
       <c r="F89" s="17"/>
-      <c r="G89" s="36" t="s">
+      <c r="G89" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H89" s="30" t="n">
+      <c r="H89" s="29" t="n">
         <f aca="false">H86+IF(WEEKDAY(H86)=3,2,5)</f>
         <v>45988</v>
       </c>
-      <c r="I89" s="31"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="28"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="27"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="27"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="30" t="n">
+      <c r="B90" s="26"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="29" t="n">
         <f aca="false">IF(D89="",D88+IF(OR(WEEKDAY(D88)=2,WEEKDAY(D88)=4),2,3),"")</f>
         <v>45989</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>45</v>
       </c>
       <c r="F90" s="17"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="28"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="27"/>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="27"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="36"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="35"/>
       <c r="F91" s="17"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="28"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="23" t="n">
